--- a/biology/Botanique/Parc_national_du_Synevyr/Parc_national_du_Synevyr.xlsx
+++ b/biology/Botanique/Parc_national_du_Synevyr/Parc_national_du_Synevyr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national de Synevy (en ukrainien : Синевир (національний природний парк)) est un parc national situé dans l’oblast de Transcarpatie en Ukraine.
-D'une taille de 40 400 hectares il est créé en 1974 et classé en 2004. Il fait partie des forêts primaires de hêtres des Carpates et d'autres régions d'Europe qui sont sur la liste de l'UNESCO[2] et regroupe les sites : Darvaika de 1 588,46 hectares[3], Kvasovets de 561,62 hectares[4], Strymba de 260,65 hectares[5] et Vilchany de 454,31 hectares[6].
+D'une taille de 40 400 hectares il est créé en 1974 et classé en 2004. Il fait partie des forêts primaires de hêtres des Carpates et d'autres régions d'Europe qui sont sur la liste de l'UNESCO et regroupe les sites : Darvaika de 1 588,46 hectares, Kvasovets de 561,62 hectares, Strymba de 260,65 hectares et Vilchany de 454,31 hectares.
 			Parc d'ours.
 			Lac Synevyr.
 			Salamandre.
-			Ozirtze vue du dessus, réserve naturelle[7].
+			Ozirtze vue du dessus, réserve naturelle.
 			Chute d'eau de Kamianka.
-			Kantina, réserve naturelle[8].
+			Kantina, réserve naturelle.
 </t>
         </is>
       </c>
